--- a/AGR & IND - Jonathans kladder/nrg_bal_2015_agr&ind.xlsx
+++ b/AGR & IND - Jonathans kladder/nrg_bal_2015_agr&ind.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="99">
   <si>
     <t>Complete energy balances [NRG_BAL_C__custom_2305190]</t>
   </si>
@@ -289,6 +289,31 @@
   </si>
   <si>
     <t>Diff</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>Gasoline</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Fuel Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renewables and wastes
+</t>
+  </si>
+  <si>
+    <t>District Heating</t>
+  </si>
+  <si>
+    <t>Manufactured Gas</t>
   </si>
 </sst>
 </file>
@@ -296,10 +321,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -311,27 +336,32 @@
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -361,8 +391,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +443,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,11 +492,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -488,10 +546,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -501,30 +555,37 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3 10 3" xfId="1"/>
+    <cellStyle name="Normal 73" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -896,22 +957,22 @@
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1321,8 +1382,8 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A18" sqref="A18"/>
+      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1366,30 +1427,87 @@
     <col min="37" max="37" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C5" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1397,7 +1515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>64</v>
       </c>
@@ -1465,7 +1583,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>66</v>
       </c>
@@ -1523,17 +1641,17 @@
       <c r="S9" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="T9" s="27" t="s">
+      <c r="T9" s="25" t="s">
         <v>89</v>
       </c>
       <c r="U9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="V9" s="27" t="s">
+      <c r="V9" s="25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
@@ -1601,1096 +1719,1096 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="21">
         <v>2347437.8429999999</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>165986.215</v>
       </c>
-      <c r="D11" s="23">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="21">
         <v>124772.26700000001</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="21">
         <v>17354.07</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="21">
         <v>3810.7440000000001</v>
       </c>
-      <c r="I11" s="23">
-        <v>0</v>
-      </c>
-      <c r="J11" s="23">
-        <v>0</v>
-      </c>
-      <c r="K11" s="23">
-        <v>0</v>
-      </c>
-      <c r="L11" s="23">
+      <c r="I11" s="21">
+        <v>0</v>
+      </c>
+      <c r="J11" s="21">
+        <v>0</v>
+      </c>
+      <c r="K11" s="21">
+        <v>0</v>
+      </c>
+      <c r="L11" s="21">
         <v>31425.475999999999</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="21">
         <v>59921.184999999998</v>
       </c>
-      <c r="N11" s="23">
-        <v>0</v>
-      </c>
-      <c r="O11" s="23">
+      <c r="N11" s="21">
+        <v>0</v>
+      </c>
+      <c r="O11" s="21">
         <f>F11-SUM(G11:N11)</f>
         <v>12260.792000000016</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="21">
         <v>803822.4</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="21">
         <v>152576.361</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="21">
         <v>823770</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S11" s="21">
         <v>173430</v>
       </c>
-      <c r="T11" s="28">
+      <c r="T11" s="26">
         <v>103080.6</v>
       </c>
-      <c r="U11" s="23">
-        <f>SUM(G11:T11)+C11</f>
+      <c r="U11" s="21">
+        <f t="shared" ref="U11:U24" si="0">SUM(G11:T11)+C11</f>
         <v>2347437.8429999999</v>
       </c>
-      <c r="V11" s="30">
-        <f>U11-B11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="V11" s="28">
+        <f t="shared" ref="V11:V24" si="1">U11-B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="22">
         <v>323693.26799999998</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="21">
         <v>38292.796000000002</v>
       </c>
-      <c r="D12" s="24">
-        <v>0</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="22">
         <v>3491.672</v>
       </c>
-      <c r="G12" s="24">
-        <v>0</v>
-      </c>
-      <c r="H12" s="24">
+      <c r="G12" s="22">
+        <v>0</v>
+      </c>
+      <c r="H12" s="22">
         <v>45.366</v>
       </c>
-      <c r="I12" s="24">
-        <v>0</v>
-      </c>
-      <c r="J12" s="24">
-        <v>0</v>
-      </c>
-      <c r="K12" s="24">
-        <v>0</v>
-      </c>
-      <c r="L12" s="24">
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="22">
+        <v>0</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+      <c r="L12" s="22">
         <v>3382.306</v>
       </c>
-      <c r="M12" s="24">
-        <v>0</v>
-      </c>
-      <c r="N12" s="24">
-        <v>0</v>
-      </c>
-      <c r="O12" s="23">
-        <f t="shared" ref="O12:O26" si="0">F12-SUM(G12:N12)</f>
+      <c r="M12" s="22">
+        <v>0</v>
+      </c>
+      <c r="N12" s="22">
+        <v>0</v>
+      </c>
+      <c r="O12" s="21">
+        <f t="shared" ref="O12:O26" si="2">F12-SUM(G12:N12)</f>
         <v>64</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="22">
         <v>88242.3</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="22">
         <v>64</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="22">
         <v>93826.8</v>
       </c>
-      <c r="S12" s="24">
+      <c r="S12" s="22">
         <v>1520</v>
       </c>
-      <c r="T12" s="29">
+      <c r="T12" s="27">
         <v>98255.7</v>
       </c>
-      <c r="U12" s="23">
-        <f>SUM(G12:T12)+C12</f>
+      <c r="U12" s="21">
+        <f t="shared" si="0"/>
         <v>323693.26800000004</v>
       </c>
-      <c r="V12" s="30">
-        <f>U12-B12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="V12" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="21">
         <v>617383.64199999999</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="22">
         <v>41000.930999999997</v>
       </c>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23" t="s">
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="21">
         <v>68586.876999999993</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="21">
         <v>13671.620999999999</v>
       </c>
-      <c r="H13" s="23">
-        <v>0</v>
-      </c>
-      <c r="I13" s="23">
-        <v>0</v>
-      </c>
-      <c r="J13" s="23">
-        <v>0</v>
-      </c>
-      <c r="K13" s="23">
-        <v>0</v>
-      </c>
-      <c r="L13" s="23">
+      <c r="H13" s="21">
+        <v>0</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21">
+        <v>0</v>
+      </c>
+      <c r="K13" s="21">
+        <v>0</v>
+      </c>
+      <c r="L13" s="21">
         <v>813.46600000000001</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="21">
         <v>53525.79</v>
       </c>
-      <c r="N13" s="23">
-        <v>0</v>
-      </c>
-      <c r="O13" s="23">
+      <c r="N13" s="21">
+        <v>0</v>
+      </c>
+      <c r="O13" s="21">
+        <f t="shared" si="2"/>
+        <v>575.99999999998545</v>
+      </c>
+      <c r="P13" s="21">
+        <v>204782.4</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>10831.034</v>
+      </c>
+      <c r="R13" s="21">
+        <v>192474</v>
+      </c>
+      <c r="S13" s="21">
+        <v>97183</v>
+      </c>
+      <c r="T13" s="26">
+        <v>2525.4</v>
+      </c>
+      <c r="U13" s="21">
         <f t="shared" si="0"/>
-        <v>575.99999999998545</v>
-      </c>
-      <c r="P13" s="23">
-        <v>204782.4</v>
-      </c>
-      <c r="Q13" s="23">
-        <v>10831.034</v>
-      </c>
-      <c r="R13" s="23">
-        <v>192474</v>
-      </c>
-      <c r="S13" s="23">
-        <v>97183</v>
-      </c>
-      <c r="T13" s="28">
-        <v>2525.4</v>
-      </c>
-      <c r="U13" s="23">
-        <f>SUM(G13:T13)+C13</f>
         <v>617383.64199999999</v>
       </c>
-      <c r="V13" s="30">
-        <f>U13-B13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="V13" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="22">
         <v>96839.25</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="21">
         <v>1343.058</v>
       </c>
-      <c r="D14" s="24">
-        <v>0</v>
-      </c>
-      <c r="E14" s="24" t="s">
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="22">
         <v>3138.9920000000002</v>
       </c>
-      <c r="G14" s="24">
-        <v>0</v>
-      </c>
-      <c r="H14" s="24">
+      <c r="G14" s="22">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22">
         <v>90.731999999999999</v>
       </c>
-      <c r="I14" s="24">
-        <v>0</v>
-      </c>
-      <c r="J14" s="24">
-        <v>0</v>
-      </c>
-      <c r="K14" s="24">
-        <v>0</v>
-      </c>
-      <c r="L14" s="24">
+      <c r="I14" s="22">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0</v>
+      </c>
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+      <c r="L14" s="22">
         <v>642.21</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="22">
         <v>1222.05</v>
       </c>
-      <c r="N14" s="24">
-        <v>0</v>
-      </c>
-      <c r="O14" s="23">
+      <c r="N14" s="22">
+        <v>0</v>
+      </c>
+      <c r="O14" s="21">
+        <f t="shared" si="2"/>
+        <v>1184.0000000000002</v>
+      </c>
+      <c r="P14" s="22">
+        <v>33843.599999999999</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>269</v>
+      </c>
+      <c r="R14" s="22">
+        <v>57135.6</v>
+      </c>
+      <c r="S14" s="22">
+        <v>1109</v>
+      </c>
+      <c r="T14" s="27">
+        <v>0</v>
+      </c>
+      <c r="U14" s="21">
         <f t="shared" si="0"/>
-        <v>1184.0000000000002</v>
-      </c>
-      <c r="P14" s="24">
-        <v>33843.599999999999</v>
-      </c>
-      <c r="Q14" s="24">
-        <v>269</v>
-      </c>
-      <c r="R14" s="24">
-        <v>57135.6</v>
-      </c>
-      <c r="S14" s="24">
-        <v>1109</v>
-      </c>
-      <c r="T14" s="29">
-        <v>0</v>
-      </c>
-      <c r="U14" s="23">
-        <f>SUM(G14:T14)+C14</f>
         <v>96839.25</v>
       </c>
-      <c r="V14" s="30">
-        <f>U14-B14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="V14" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="21">
         <v>274429.65700000001</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="22">
         <v>57791.9</v>
       </c>
-      <c r="D15" s="23">
-        <v>0</v>
-      </c>
-      <c r="E15" s="23" t="s">
+      <c r="D15" s="21">
+        <v>0</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="21">
         <v>17193.571</v>
       </c>
-      <c r="G15" s="23">
-        <v>0</v>
-      </c>
-      <c r="H15" s="23">
+      <c r="G15" s="21">
+        <v>0</v>
+      </c>
+      <c r="H15" s="21">
         <v>453.66</v>
       </c>
-      <c r="I15" s="23">
-        <v>0</v>
-      </c>
-      <c r="J15" s="23">
-        <v>0</v>
-      </c>
-      <c r="K15" s="23">
-        <v>0</v>
-      </c>
-      <c r="L15" s="23">
+      <c r="I15" s="21">
+        <v>0</v>
+      </c>
+      <c r="J15" s="21">
+        <v>0</v>
+      </c>
+      <c r="K15" s="21">
+        <v>0</v>
+      </c>
+      <c r="L15" s="21">
         <v>3339.4920000000002</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="21">
         <v>3462.4749999999999</v>
       </c>
-      <c r="N15" s="23">
-        <v>0</v>
-      </c>
-      <c r="O15" s="23">
+      <c r="N15" s="21">
+        <v>0</v>
+      </c>
+      <c r="O15" s="21">
+        <f t="shared" si="2"/>
+        <v>9937.9439999999995</v>
+      </c>
+      <c r="P15" s="21">
+        <v>104013</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>50390.585999999996</v>
+      </c>
+      <c r="R15" s="21">
+        <v>44265.599999999999</v>
+      </c>
+      <c r="S15" s="21">
+        <v>775</v>
+      </c>
+      <c r="T15" s="26">
+        <v>0</v>
+      </c>
+      <c r="U15" s="21">
         <f t="shared" si="0"/>
-        <v>9937.9439999999995</v>
-      </c>
-      <c r="P15" s="23">
-        <v>104013</v>
-      </c>
-      <c r="Q15" s="23">
-        <v>50390.585999999996</v>
-      </c>
-      <c r="R15" s="23">
-        <v>44265.599999999999</v>
-      </c>
-      <c r="S15" s="23">
-        <v>775</v>
-      </c>
-      <c r="T15" s="28">
-        <v>0</v>
-      </c>
-      <c r="U15" s="23">
-        <f>SUM(G15:T15)+C15</f>
         <v>274429.65700000001</v>
       </c>
-      <c r="V15" s="30">
-        <f>U15-B15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="V15" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="22">
         <v>120490.32</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="21">
         <v>126.816</v>
       </c>
-      <c r="D16" s="24">
-        <v>0</v>
-      </c>
-      <c r="E16" s="24" t="s">
+      <c r="D16" s="22">
+        <v>0</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="22">
         <v>1839.742</v>
       </c>
-      <c r="G16" s="24">
-        <v>0</v>
-      </c>
-      <c r="H16" s="24">
+      <c r="G16" s="22">
+        <v>0</v>
+      </c>
+      <c r="H16" s="22">
         <v>136.09800000000001</v>
       </c>
-      <c r="I16" s="24">
-        <v>0</v>
-      </c>
-      <c r="J16" s="24">
-        <v>0</v>
-      </c>
-      <c r="K16" s="24">
-        <v>0</v>
-      </c>
-      <c r="L16" s="24">
+      <c r="I16" s="22">
+        <v>0</v>
+      </c>
+      <c r="J16" s="22">
+        <v>0</v>
+      </c>
+      <c r="K16" s="22">
+        <v>0</v>
+      </c>
+      <c r="L16" s="22">
         <v>1626.932</v>
       </c>
-      <c r="M16" s="24">
-        <v>0</v>
-      </c>
-      <c r="N16" s="24">
-        <v>0</v>
-      </c>
-      <c r="O16" s="23">
+      <c r="M16" s="22">
+        <v>0</v>
+      </c>
+      <c r="N16" s="22">
+        <v>0</v>
+      </c>
+      <c r="O16" s="21">
+        <f t="shared" si="2"/>
+        <v>76.711999999999989</v>
+      </c>
+      <c r="P16" s="22">
+        <v>36487.800000000003</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>277.86200000000002</v>
+      </c>
+      <c r="R16" s="22">
+        <v>66654</v>
+      </c>
+      <c r="S16" s="22">
+        <v>13440</v>
+      </c>
+      <c r="T16" s="27">
+        <v>1664.1</v>
+      </c>
+      <c r="U16" s="21">
         <f t="shared" si="0"/>
-        <v>76.711999999999989</v>
-      </c>
-      <c r="P16" s="24">
-        <v>36487.800000000003</v>
-      </c>
-      <c r="Q16" s="24">
-        <v>277.86200000000002</v>
-      </c>
-      <c r="R16" s="24">
-        <v>66654</v>
-      </c>
-      <c r="S16" s="24">
-        <v>13440</v>
-      </c>
-      <c r="T16" s="29">
-        <v>1664.1</v>
-      </c>
-      <c r="U16" s="23">
-        <f>SUM(G16:T16)+C16</f>
         <v>120490.32000000002</v>
       </c>
-      <c r="V16" s="30">
-        <f>U16-B16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="V16" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="21">
         <v>214809.09700000001</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <v>336.67700000000002</v>
       </c>
-      <c r="D17" s="23">
-        <v>0</v>
-      </c>
-      <c r="E17" s="23" t="s">
+      <c r="D17" s="21">
+        <v>0</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="21">
         <v>9877.6270000000004</v>
       </c>
-      <c r="G17" s="23">
-        <v>0</v>
-      </c>
-      <c r="H17" s="23">
+      <c r="G17" s="21">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21">
         <v>1497.078</v>
       </c>
-      <c r="I17" s="23">
-        <v>0</v>
-      </c>
-      <c r="J17" s="23">
-        <v>0</v>
-      </c>
-      <c r="K17" s="23">
-        <v>0</v>
-      </c>
-      <c r="L17" s="23">
+      <c r="I17" s="21">
+        <v>0</v>
+      </c>
+      <c r="J17" s="21">
+        <v>0</v>
+      </c>
+      <c r="K17" s="21">
+        <v>0</v>
+      </c>
+      <c r="L17" s="21">
         <v>8263.1020000000008</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="21">
         <v>40.734999999999999</v>
       </c>
-      <c r="N17" s="23">
-        <v>0</v>
-      </c>
-      <c r="O17" s="23">
+      <c r="N17" s="21">
+        <v>0</v>
+      </c>
+      <c r="O17" s="21">
+        <f t="shared" si="2"/>
+        <v>76.711999999999534</v>
+      </c>
+      <c r="P17" s="21">
+        <v>71144.100000000006</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>2592.2930000000001</v>
+      </c>
+      <c r="R17" s="21">
+        <v>120315.6</v>
+      </c>
+      <c r="S17" s="21">
+        <v>9929</v>
+      </c>
+      <c r="T17" s="26">
+        <v>613.79999999999995</v>
+      </c>
+      <c r="U17" s="21">
         <f t="shared" si="0"/>
+        <v>214809.09700000001</v>
+      </c>
+      <c r="V17" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="22">
+        <v>15335.648999999999</v>
+      </c>
+      <c r="C18" s="21">
+        <v>2557.4859999999999</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="22">
+        <v>1230.8630000000001</v>
+      </c>
+      <c r="G18" s="22">
+        <v>0</v>
+      </c>
+      <c r="H18" s="22">
+        <v>317.56200000000001</v>
+      </c>
+      <c r="I18" s="22">
+        <v>0</v>
+      </c>
+      <c r="J18" s="22">
+        <v>0</v>
+      </c>
+      <c r="K18" s="22">
+        <v>0</v>
+      </c>
+      <c r="L18" s="22">
+        <v>642.21</v>
+      </c>
+      <c r="M18" s="22">
+        <v>40.734999999999999</v>
+      </c>
+      <c r="N18" s="22">
+        <v>0</v>
+      </c>
+      <c r="O18" s="21">
+        <f t="shared" si="2"/>
+        <v>230.35599999999999</v>
+      </c>
+      <c r="P18" s="22">
+        <v>4308.3</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>859</v>
+      </c>
+      <c r="R18" s="22">
+        <v>6264</v>
+      </c>
+      <c r="S18" s="22">
+        <v>116</v>
+      </c>
+      <c r="T18" s="27">
+        <v>0</v>
+      </c>
+      <c r="U18" s="21">
+        <f t="shared" si="0"/>
+        <v>15335.649000000001</v>
+      </c>
+      <c r="V18" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="21">
+        <v>204843.899</v>
+      </c>
+      <c r="C19" s="22">
+        <v>8783.3140000000003</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="21">
+        <v>7750.8540000000003</v>
+      </c>
+      <c r="G19" s="21">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21">
+        <v>226.83</v>
+      </c>
+      <c r="I19" s="21">
+        <v>0</v>
+      </c>
+      <c r="J19" s="21">
+        <v>0</v>
+      </c>
+      <c r="K19" s="21">
+        <v>0</v>
+      </c>
+      <c r="L19" s="21">
+        <v>6464.9139999999998</v>
+      </c>
+      <c r="M19" s="21">
+        <v>1059.1099999999999</v>
+      </c>
+      <c r="N19" s="21">
+        <v>0</v>
+      </c>
+      <c r="O19" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="21">
+        <v>110628.9</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>2357.431</v>
+      </c>
+      <c r="R19" s="21">
+        <v>65498.400000000001</v>
+      </c>
+      <c r="S19" s="21">
+        <v>9825</v>
+      </c>
+      <c r="T19" s="26">
+        <v>0</v>
+      </c>
+      <c r="U19" s="21">
+        <f t="shared" si="0"/>
+        <v>204843.899</v>
+      </c>
+      <c r="V19" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="22">
+        <v>237953.03599999999</v>
+      </c>
+      <c r="C20" s="21">
+        <v>15391.97</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="22">
+        <v>2155.8110000000001</v>
+      </c>
+      <c r="G20" s="22">
+        <v>0</v>
+      </c>
+      <c r="H20" s="22">
+        <v>680.49</v>
+      </c>
+      <c r="I20" s="22">
+        <v>0</v>
+      </c>
+      <c r="J20" s="22">
+        <v>0</v>
+      </c>
+      <c r="K20" s="22">
+        <v>0</v>
+      </c>
+      <c r="L20" s="22">
+        <v>1070.3499999999999</v>
+      </c>
+      <c r="M20" s="22">
+        <v>366.61500000000001</v>
+      </c>
+      <c r="N20" s="22">
+        <v>0</v>
+      </c>
+      <c r="O20" s="21">
+        <f t="shared" si="2"/>
+        <v>38.356000000000222</v>
+      </c>
+      <c r="P20" s="22">
+        <v>86829.3</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>29066.154999999999</v>
+      </c>
+      <c r="R20" s="22">
+        <v>76762.8</v>
+      </c>
+      <c r="S20" s="22">
+        <v>27747</v>
+      </c>
+      <c r="T20" s="27">
+        <v>0</v>
+      </c>
+      <c r="U20" s="21">
+        <f t="shared" si="0"/>
+        <v>237953.03599999999</v>
+      </c>
+      <c r="V20" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="21">
+        <v>74996.255000000005</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="21">
+        <v>557.05499999999995</v>
+      </c>
+      <c r="G21" s="21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="21">
+        <v>45.366</v>
+      </c>
+      <c r="I21" s="21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="21">
+        <v>470.95400000000001</v>
+      </c>
+      <c r="M21" s="21">
+        <v>40.734999999999999</v>
+      </c>
+      <c r="N21" s="21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="21">
+        <v>5130</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>50300</v>
+      </c>
+      <c r="R21" s="21">
+        <v>16171.2</v>
+      </c>
+      <c r="S21" s="21">
+        <v>2838</v>
+      </c>
+      <c r="T21" s="26">
+        <v>0</v>
+      </c>
+      <c r="U21" s="21">
+        <f t="shared" si="0"/>
+        <v>74996.255000000005</v>
+      </c>
+      <c r="V21" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="21">
+        <v>21569.934000000001</v>
+      </c>
+      <c r="C22" s="22">
+        <v>253.63200000000001</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="21">
+        <v>940.30200000000002</v>
+      </c>
+      <c r="G22" s="21">
+        <v>0</v>
+      </c>
+      <c r="H22" s="21">
+        <v>45.366</v>
+      </c>
+      <c r="I22" s="21">
+        <v>0</v>
+      </c>
+      <c r="J22" s="21">
+        <v>0</v>
+      </c>
+      <c r="K22" s="21">
+        <v>0</v>
+      </c>
+      <c r="L22" s="21">
+        <v>813.46600000000001</v>
+      </c>
+      <c r="M22" s="21">
+        <v>81.47</v>
+      </c>
+      <c r="N22" s="21">
+        <v>0</v>
+      </c>
+      <c r="O22" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="21">
+        <v>9849.6</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>96</v>
+      </c>
+      <c r="R22" s="21">
+        <v>8132.4</v>
+      </c>
+      <c r="S22" s="21">
+        <v>2298</v>
+      </c>
+      <c r="T22" s="26">
+        <v>0</v>
+      </c>
+      <c r="U22" s="21">
+        <f t="shared" si="0"/>
+        <v>21569.934000000001</v>
+      </c>
+      <c r="V22" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="22">
+        <v>35077.5</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0</v>
+      </c>
+      <c r="D23" s="22">
+        <v>0</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="22">
+        <v>0</v>
+      </c>
+      <c r="G23" s="22">
+        <v>0</v>
+      </c>
+      <c r="H23" s="22">
+        <v>0</v>
+      </c>
+      <c r="I23" s="22">
+        <v>0</v>
+      </c>
+      <c r="J23" s="22">
+        <v>0</v>
+      </c>
+      <c r="K23" s="22">
+        <v>0</v>
+      </c>
+      <c r="L23" s="22">
+        <v>0</v>
+      </c>
+      <c r="M23" s="22">
+        <v>0</v>
+      </c>
+      <c r="N23" s="22">
+        <v>0</v>
+      </c>
+      <c r="O23" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="22">
+        <v>20875.5</v>
+      </c>
+      <c r="Q23" s="22">
+        <v>0</v>
+      </c>
+      <c r="R23" s="22">
+        <v>14202</v>
+      </c>
+      <c r="S23" s="22">
+        <v>0</v>
+      </c>
+      <c r="T23" s="27">
+        <v>0</v>
+      </c>
+      <c r="U23" s="21">
+        <f t="shared" si="0"/>
+        <v>35077.5</v>
+      </c>
+      <c r="V23" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="22">
+        <v>110016.336</v>
+      </c>
+      <c r="C24" s="21">
+        <v>107.63500000000001</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="22">
+        <v>8008.9009999999998</v>
+      </c>
+      <c r="G24" s="22">
+        <v>3682.4490000000001</v>
+      </c>
+      <c r="H24" s="22">
+        <v>272.19600000000003</v>
+      </c>
+      <c r="I24" s="22">
+        <v>0</v>
+      </c>
+      <c r="J24" s="22">
+        <v>0</v>
+      </c>
+      <c r="K24" s="22">
+        <v>0</v>
+      </c>
+      <c r="L24" s="22">
+        <v>3896.0740000000001</v>
+      </c>
+      <c r="M24" s="22">
+        <v>81.47</v>
+      </c>
+      <c r="N24" s="22">
+        <v>0</v>
+      </c>
+      <c r="O24" s="21">
+        <f t="shared" si="2"/>
         <v>76.711999999999534</v>
       </c>
-      <c r="P17" s="23">
-        <v>71144.100000000006</v>
-      </c>
-      <c r="Q17" s="23">
-        <v>2592.2930000000001</v>
-      </c>
-      <c r="R17" s="23">
-        <v>120315.6</v>
-      </c>
-      <c r="S17" s="23">
-        <v>9929</v>
-      </c>
-      <c r="T17" s="28">
-        <v>613.79999999999995</v>
-      </c>
-      <c r="U17" s="23">
-        <f>SUM(G17:T17)+C17</f>
-        <v>214809.09700000001</v>
-      </c>
-      <c r="V17" s="30">
-        <f>U17-B17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="24">
-        <v>15335.648999999999</v>
-      </c>
-      <c r="C18" s="23">
-        <v>2557.4859999999999</v>
-      </c>
-      <c r="D18" s="24">
-        <v>0</v>
-      </c>
-      <c r="E18" s="24" t="s">
+      <c r="P24" s="22">
+        <v>27687.599999999999</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>5473</v>
+      </c>
+      <c r="R24" s="22">
+        <v>62067.6</v>
+      </c>
+      <c r="S24" s="22">
+        <v>6650</v>
+      </c>
+      <c r="T24" s="27">
+        <v>21.6</v>
+      </c>
+      <c r="U24" s="21">
+        <f t="shared" si="0"/>
+        <v>110016.336</v>
+      </c>
+      <c r="V24" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="28"/>
+    </row>
+    <row r="26" spans="1:22" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="21">
+        <v>60755.800999999999</v>
+      </c>
+      <c r="C26" s="22">
+        <v>0</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="24">
-        <v>1230.8630000000001</v>
-      </c>
-      <c r="G18" s="24">
-        <v>0</v>
-      </c>
-      <c r="H18" s="24">
-        <v>317.56200000000001</v>
-      </c>
-      <c r="I18" s="24">
-        <v>0</v>
-      </c>
-      <c r="J18" s="24">
-        <v>0</v>
-      </c>
-      <c r="K18" s="24">
-        <v>0</v>
-      </c>
-      <c r="L18" s="24">
-        <v>642.21</v>
-      </c>
-      <c r="M18" s="24">
-        <v>40.734999999999999</v>
-      </c>
-      <c r="N18" s="24">
-        <v>0</v>
-      </c>
-      <c r="O18" s="23">
-        <f t="shared" si="0"/>
-        <v>230.35599999999999</v>
-      </c>
-      <c r="P18" s="24">
-        <v>4308.3</v>
-      </c>
-      <c r="Q18" s="24">
-        <v>859</v>
-      </c>
-      <c r="R18" s="24">
-        <v>6264</v>
-      </c>
-      <c r="S18" s="24">
-        <v>116</v>
-      </c>
-      <c r="T18" s="29">
-        <v>0</v>
-      </c>
-      <c r="U18" s="23">
-        <f>SUM(G18:T18)+C18</f>
-        <v>15335.649000000001</v>
-      </c>
-      <c r="V18" s="30">
-        <f>U18-B18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="23">
-        <v>204843.899</v>
-      </c>
-      <c r="C19" s="24">
-        <v>8783.3140000000003</v>
-      </c>
-      <c r="D19" s="23">
-        <v>0</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="23">
-        <v>7750.8540000000003</v>
-      </c>
-      <c r="G19" s="23">
-        <v>0</v>
-      </c>
-      <c r="H19" s="23">
-        <v>226.83</v>
-      </c>
-      <c r="I19" s="23">
-        <v>0</v>
-      </c>
-      <c r="J19" s="23">
-        <v>0</v>
-      </c>
-      <c r="K19" s="23">
-        <v>0</v>
-      </c>
-      <c r="L19" s="23">
-        <v>6464.9139999999998</v>
-      </c>
-      <c r="M19" s="23">
-        <v>1059.1099999999999</v>
-      </c>
-      <c r="N19" s="23">
-        <v>0</v>
-      </c>
-      <c r="O19" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="23">
-        <v>110628.9</v>
-      </c>
-      <c r="Q19" s="23">
-        <v>2357.431</v>
-      </c>
-      <c r="R19" s="23">
-        <v>65498.400000000001</v>
-      </c>
-      <c r="S19" s="23">
-        <v>9825</v>
-      </c>
-      <c r="T19" s="28">
-        <v>0</v>
-      </c>
-      <c r="U19" s="23">
-        <f>SUM(G19:T19)+C19</f>
-        <v>204843.899</v>
-      </c>
-      <c r="V19" s="30">
-        <f>U19-B19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="24">
-        <v>237953.03599999999</v>
-      </c>
-      <c r="C20" s="23">
-        <v>15391.97</v>
-      </c>
-      <c r="D20" s="24">
-        <v>0</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="24">
-        <v>2155.8110000000001</v>
-      </c>
-      <c r="G20" s="24">
-        <v>0</v>
-      </c>
-      <c r="H20" s="24">
-        <v>680.49</v>
-      </c>
-      <c r="I20" s="24">
-        <v>0</v>
-      </c>
-      <c r="J20" s="24">
-        <v>0</v>
-      </c>
-      <c r="K20" s="24">
-        <v>0</v>
-      </c>
-      <c r="L20" s="24">
-        <v>1070.3499999999999</v>
-      </c>
-      <c r="M20" s="24">
-        <v>366.61500000000001</v>
-      </c>
-      <c r="N20" s="24">
-        <v>0</v>
-      </c>
-      <c r="O20" s="23">
-        <f t="shared" si="0"/>
-        <v>38.356000000000222</v>
-      </c>
-      <c r="P20" s="24">
-        <v>86829.3</v>
-      </c>
-      <c r="Q20" s="24">
-        <v>29066.154999999999</v>
-      </c>
-      <c r="R20" s="24">
-        <v>76762.8</v>
-      </c>
-      <c r="S20" s="24">
-        <v>27747</v>
-      </c>
-      <c r="T20" s="29">
-        <v>0</v>
-      </c>
-      <c r="U20" s="23">
-        <f>SUM(G20:T20)+C20</f>
-        <v>237953.03599999999</v>
-      </c>
-      <c r="V20" s="30">
-        <f>U20-B20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="23">
-        <v>74996.255000000005</v>
-      </c>
-      <c r="C21" s="24">
-        <v>0</v>
-      </c>
-      <c r="D21" s="23">
-        <v>0</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="23">
-        <v>557.05499999999995</v>
-      </c>
-      <c r="G21" s="23">
-        <v>0</v>
-      </c>
-      <c r="H21" s="23">
-        <v>45.366</v>
-      </c>
-      <c r="I21" s="23">
-        <v>0</v>
-      </c>
-      <c r="J21" s="23">
-        <v>0</v>
-      </c>
-      <c r="K21" s="23">
-        <v>0</v>
-      </c>
-      <c r="L21" s="23">
-        <v>470.95400000000001</v>
-      </c>
-      <c r="M21" s="23">
-        <v>40.734999999999999</v>
-      </c>
-      <c r="N21" s="23">
-        <v>0</v>
-      </c>
-      <c r="O21" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="23">
-        <v>5130</v>
-      </c>
-      <c r="Q21" s="23">
-        <v>50300</v>
-      </c>
-      <c r="R21" s="23">
-        <v>16171.2</v>
-      </c>
-      <c r="S21" s="23">
-        <v>2838</v>
-      </c>
-      <c r="T21" s="28">
-        <v>0</v>
-      </c>
-      <c r="U21" s="23">
-        <f>SUM(G21:T21)+C21</f>
-        <v>74996.255000000005</v>
-      </c>
-      <c r="V21" s="30">
-        <f>U21-B21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="23">
-        <v>21569.934000000001</v>
-      </c>
-      <c r="C22" s="24">
-        <v>253.63200000000001</v>
-      </c>
-      <c r="D22" s="23">
-        <v>0</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="23">
-        <v>940.30200000000002</v>
-      </c>
-      <c r="G22" s="23">
-        <v>0</v>
-      </c>
-      <c r="H22" s="23">
-        <v>45.366</v>
-      </c>
-      <c r="I22" s="23">
-        <v>0</v>
-      </c>
-      <c r="J22" s="23">
-        <v>0</v>
-      </c>
-      <c r="K22" s="23">
-        <v>0</v>
-      </c>
-      <c r="L22" s="23">
-        <v>813.46600000000001</v>
-      </c>
-      <c r="M22" s="23">
-        <v>81.47</v>
-      </c>
-      <c r="N22" s="23">
-        <v>0</v>
-      </c>
-      <c r="O22" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="23">
-        <v>9849.6</v>
-      </c>
-      <c r="Q22" s="23">
-        <v>96</v>
-      </c>
-      <c r="R22" s="23">
-        <v>8132.4</v>
-      </c>
-      <c r="S22" s="23">
-        <v>2298</v>
-      </c>
-      <c r="T22" s="28">
-        <v>0</v>
-      </c>
-      <c r="U22" s="23">
-        <f>SUM(G22:T22)+C22</f>
-        <v>21569.934000000001</v>
-      </c>
-      <c r="V22" s="30">
-        <f>U22-B22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="24">
-        <v>35077.5</v>
-      </c>
-      <c r="C23" s="23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="24">
-        <v>0</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="24">
-        <v>0</v>
-      </c>
-      <c r="G23" s="24">
-        <v>0</v>
-      </c>
-      <c r="H23" s="24">
-        <v>0</v>
-      </c>
-      <c r="I23" s="24">
-        <v>0</v>
-      </c>
-      <c r="J23" s="24">
-        <v>0</v>
-      </c>
-      <c r="K23" s="24">
-        <v>0</v>
-      </c>
-      <c r="L23" s="24">
-        <v>0</v>
-      </c>
-      <c r="M23" s="24">
-        <v>0</v>
-      </c>
-      <c r="N23" s="24">
-        <v>0</v>
-      </c>
-      <c r="O23" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="24">
-        <v>20875.5</v>
-      </c>
-      <c r="Q23" s="24">
-        <v>0</v>
-      </c>
-      <c r="R23" s="24">
-        <v>14202</v>
-      </c>
-      <c r="S23" s="24">
-        <v>0</v>
-      </c>
-      <c r="T23" s="29">
-        <v>0</v>
-      </c>
-      <c r="U23" s="23">
-        <f>SUM(G23:T23)+C23</f>
-        <v>35077.5</v>
-      </c>
-      <c r="V23" s="30">
-        <f>U23-B23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="24">
-        <v>110016.336</v>
-      </c>
-      <c r="C24" s="23">
-        <v>107.63500000000001</v>
-      </c>
-      <c r="D24" s="24">
-        <v>0</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="24">
-        <v>8008.9009999999998</v>
-      </c>
-      <c r="G24" s="24">
-        <v>3682.4490000000001</v>
-      </c>
-      <c r="H24" s="24">
-        <v>272.19600000000003</v>
-      </c>
-      <c r="I24" s="24">
-        <v>0</v>
-      </c>
-      <c r="J24" s="24">
-        <v>0</v>
-      </c>
-      <c r="K24" s="24">
-        <v>0</v>
-      </c>
-      <c r="L24" s="24">
-        <v>3896.0740000000001</v>
-      </c>
-      <c r="M24" s="24">
-        <v>81.47</v>
-      </c>
-      <c r="N24" s="24">
-        <v>0</v>
-      </c>
-      <c r="O24" s="23">
-        <f t="shared" si="0"/>
-        <v>76.711999999999534</v>
-      </c>
-      <c r="P24" s="24">
-        <v>27687.599999999999</v>
-      </c>
-      <c r="Q24" s="24">
-        <v>5473</v>
-      </c>
-      <c r="R24" s="24">
-        <v>62067.6</v>
-      </c>
-      <c r="S24" s="24">
-        <v>6650</v>
-      </c>
-      <c r="T24" s="29">
-        <v>21.6</v>
-      </c>
-      <c r="U24" s="23">
-        <f>SUM(G24:T24)+C24</f>
-        <v>110016.336</v>
-      </c>
-      <c r="V24" s="30">
-        <f>U24-B24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="30"/>
-    </row>
-    <row r="26" spans="1:22" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="23">
-        <v>60755.800999999999</v>
-      </c>
-      <c r="C26" s="24">
-        <v>0</v>
-      </c>
-      <c r="D26" s="23">
-        <v>0</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="23">
-        <v>0</v>
-      </c>
-      <c r="G26" s="23">
-        <v>0</v>
-      </c>
-      <c r="H26" s="23">
-        <v>0</v>
-      </c>
-      <c r="I26" s="23">
-        <v>0</v>
-      </c>
-      <c r="J26" s="23">
-        <v>0</v>
-      </c>
-      <c r="K26" s="23">
-        <v>0</v>
-      </c>
-      <c r="L26" s="23">
-        <v>0</v>
-      </c>
-      <c r="M26" s="23">
-        <v>0</v>
-      </c>
-      <c r="N26" s="23">
-        <v>0</v>
-      </c>
-      <c r="O26" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="23">
+      <c r="F26" s="21">
+        <v>0</v>
+      </c>
+      <c r="G26" s="21">
+        <v>0</v>
+      </c>
+      <c r="H26" s="21">
+        <v>0</v>
+      </c>
+      <c r="I26" s="21">
+        <v>0</v>
+      </c>
+      <c r="J26" s="21">
+        <v>0</v>
+      </c>
+      <c r="K26" s="21">
+        <v>0</v>
+      </c>
+      <c r="L26" s="21">
+        <v>0</v>
+      </c>
+      <c r="M26" s="21">
+        <v>0</v>
+      </c>
+      <c r="N26" s="21">
+        <v>0</v>
+      </c>
+      <c r="O26" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="21">
         <v>13296.6</v>
       </c>
-      <c r="Q26" s="23">
+      <c r="Q26" s="21">
         <v>27518.800999999999</v>
       </c>
-      <c r="R26" s="23">
+      <c r="R26" s="21">
         <v>19940.400000000001</v>
       </c>
-      <c r="S26" s="23">
-        <v>0</v>
-      </c>
-      <c r="T26" s="28">
-        <v>0</v>
-      </c>
-      <c r="U26" s="23">
+      <c r="S26" s="21">
+        <v>0</v>
+      </c>
+      <c r="T26" s="26">
+        <v>0</v>
+      </c>
+      <c r="U26" s="21">
         <f>SUM(G26:T26)+C26</f>
         <v>60755.800999999999</v>
       </c>
-      <c r="V26" s="30">
+      <c r="V26" s="28">
         <f>U26-B26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -2701,17 +2819,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>

--- a/AGR & IND - Jonathans kladder/nrg_bal_2015_agr&ind.xlsx
+++ b/AGR & IND - Jonathans kladder/nrg_bal_2015_agr&ind.xlsx
@@ -575,12 +575,12 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,22 +957,22 @@
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1379,11 +1379,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U32" sqref="U32"/>
+      <selection pane="topRight" activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1449,61 +1449,61 @@
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="31" t="s">
+      <c r="O5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="31" t="s">
+      <c r="P5" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="Q5" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="R5" s="31" t="s">
+      <c r="R5" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="S5" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="31" t="s">
+      <c r="T5" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="U5" s="31" t="s">
+      <c r="U5" s="29" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1636,10 +1636,10 @@
         <v>88</v>
       </c>
       <c r="R9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="S9" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="T9" s="25" t="s">
         <v>89</v>
@@ -1773,10 +1773,10 @@
         <v>152576.361</v>
       </c>
       <c r="R11" s="21">
+        <v>173430</v>
+      </c>
+      <c r="S11" s="21">
         <v>823770</v>
-      </c>
-      <c r="S11" s="21">
-        <v>173430</v>
       </c>
       <c r="T11" s="26">
         <v>103080.6</v>
@@ -1844,10 +1844,10 @@
         <v>64</v>
       </c>
       <c r="R12" s="22">
+        <v>1520</v>
+      </c>
+      <c r="S12" s="22">
         <v>93826.8</v>
-      </c>
-      <c r="S12" s="22">
-        <v>1520</v>
       </c>
       <c r="T12" s="27">
         <v>98255.7</v>
@@ -1915,10 +1915,10 @@
         <v>10831.034</v>
       </c>
       <c r="R13" s="21">
+        <v>97183</v>
+      </c>
+      <c r="S13" s="21">
         <v>192474</v>
-      </c>
-      <c r="S13" s="21">
-        <v>97183</v>
       </c>
       <c r="T13" s="26">
         <v>2525.4</v>
@@ -1986,10 +1986,10 @@
         <v>269</v>
       </c>
       <c r="R14" s="22">
+        <v>1109</v>
+      </c>
+      <c r="S14" s="22">
         <v>57135.6</v>
-      </c>
-      <c r="S14" s="22">
-        <v>1109</v>
       </c>
       <c r="T14" s="27">
         <v>0</v>
@@ -2057,10 +2057,10 @@
         <v>50390.585999999996</v>
       </c>
       <c r="R15" s="21">
+        <v>775</v>
+      </c>
+      <c r="S15" s="21">
         <v>44265.599999999999</v>
-      </c>
-      <c r="S15" s="21">
-        <v>775</v>
       </c>
       <c r="T15" s="26">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>277.86200000000002</v>
       </c>
       <c r="R16" s="22">
+        <v>13440</v>
+      </c>
+      <c r="S16" s="22">
         <v>66654</v>
-      </c>
-      <c r="S16" s="22">
-        <v>13440</v>
       </c>
       <c r="T16" s="27">
         <v>1664.1</v>
@@ -2199,10 +2199,10 @@
         <v>2592.2930000000001</v>
       </c>
       <c r="R17" s="21">
+        <v>9929</v>
+      </c>
+      <c r="S17" s="21">
         <v>120315.6</v>
-      </c>
-      <c r="S17" s="21">
-        <v>9929</v>
       </c>
       <c r="T17" s="26">
         <v>613.79999999999995</v>
@@ -2270,10 +2270,10 @@
         <v>859</v>
       </c>
       <c r="R18" s="22">
+        <v>116</v>
+      </c>
+      <c r="S18" s="22">
         <v>6264</v>
-      </c>
-      <c r="S18" s="22">
-        <v>116</v>
       </c>
       <c r="T18" s="27">
         <v>0</v>
@@ -2341,10 +2341,10 @@
         <v>2357.431</v>
       </c>
       <c r="R19" s="21">
+        <v>9825</v>
+      </c>
+      <c r="S19" s="21">
         <v>65498.400000000001</v>
-      </c>
-      <c r="S19" s="21">
-        <v>9825</v>
       </c>
       <c r="T19" s="26">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>29066.154999999999</v>
       </c>
       <c r="R20" s="22">
+        <v>27747</v>
+      </c>
+      <c r="S20" s="22">
         <v>76762.8</v>
-      </c>
-      <c r="S20" s="22">
-        <v>27747</v>
       </c>
       <c r="T20" s="27">
         <v>0</v>
@@ -2483,10 +2483,10 @@
         <v>50300</v>
       </c>
       <c r="R21" s="21">
+        <v>2838</v>
+      </c>
+      <c r="S21" s="21">
         <v>16171.2</v>
-      </c>
-      <c r="S21" s="21">
-        <v>2838</v>
       </c>
       <c r="T21" s="26">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         <v>96</v>
       </c>
       <c r="R22" s="21">
+        <v>2298</v>
+      </c>
+      <c r="S22" s="21">
         <v>8132.4</v>
-      </c>
-      <c r="S22" s="21">
-        <v>2298</v>
       </c>
       <c r="T22" s="26">
         <v>0</v>
@@ -2625,10 +2625,10 @@
         <v>0</v>
       </c>
       <c r="R23" s="22">
+        <v>0</v>
+      </c>
+      <c r="S23" s="22">
         <v>14202</v>
-      </c>
-      <c r="S23" s="22">
-        <v>0</v>
       </c>
       <c r="T23" s="27">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>5473</v>
       </c>
       <c r="R24" s="22">
+        <v>6650</v>
+      </c>
+      <c r="S24" s="22">
         <v>62067.6</v>
-      </c>
-      <c r="S24" s="22">
-        <v>6650</v>
       </c>
       <c r="T24" s="27">
         <v>21.6</v>
@@ -2731,7 +2731,6 @@
       <c r="O25" s="21"/>
       <c r="P25" s="23"/>
       <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
       <c r="S25" s="23"/>
       <c r="T25" s="14"/>
       <c r="U25" s="21"/>
@@ -2791,10 +2790,10 @@
         <v>27518.800999999999</v>
       </c>
       <c r="R26" s="21">
+        <v>0</v>
+      </c>
+      <c r="S26" s="21">
         <v>19940.400000000001</v>
-      </c>
-      <c r="S26" s="21">
-        <v>0</v>
       </c>
       <c r="T26" s="26">
         <v>0</v>
@@ -2833,6 +2832,9 @@
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
+    </row>
+    <row r="44" spans="18:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R44" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
